--- a/files/LSMUN18-19社员信息.xlsx
+++ b/files/LSMUN18-19社员信息.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LSMUN\lsmunofficial.github.io\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P\Desktop\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E97B232B-8CE6-4BF2-A1F9-825B3BB9F970}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2574D31B-F48B-4E16-91F0-0DF24680A6A0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="10520" xr2:uid="{3EC1A21D-1C2F-46D8-9578-E8EAAA4117FF}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>社员姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,35 +134,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学术测试分数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>徐研</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>肖颖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20随意1随意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社员</t>
+    <t>杨迪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>随意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      女</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -537,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D8CCE0-610F-4392-97E0-3B9161E369E1}">
-  <dimension ref="A1:J840"/>
+  <dimension ref="A1:I839"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -549,12 +529,10 @@
     <col min="2" max="2" width="12.4140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.9140625" style="1" customWidth="1"/>
-    <col min="5" max="9" width="8.6640625" style="1"/>
-    <col min="10" max="10" width="10.75" customWidth="1"/>
-    <col min="11" max="16384" width="8.6640625" style="1"/>
+    <col min="5" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,11 +560,8 @@
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -601,32 +576,29 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f t="shared" ref="E2:E10" si="0">IF(LEFT(B2,1)="2","女","男")</f>
+        <f t="shared" ref="E2:E11" si="0">IF(LEFT(B2,1)="2","女","男")</f>
         <v>女</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f t="shared" ref="F2:F10" si="1">IF(MID(B2,2,1)="1","干事","社员")</f>
+        <f t="shared" ref="F2:F11" si="1">IF(MID(B2,2,1)="1","干事","社员")</f>
         <v>社员</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f t="shared" ref="G2:G10" si="2">IF(MID(B2,3,1)="0","秘书处",IF(MID(B2,3,1)="1","学术部","外联部"))</f>
+        <f t="shared" ref="G2:G11" si="2">IF(MID(B2,3,1)="0","秘书处",IF(MID(B2,3,1)="1","学术部","外联部"))</f>
         <v>外联部</v>
       </c>
       <c r="H2" s="1" t="str">
-        <f t="shared" ref="H2:H10" si="3">IF(MID(B2,4,1)="1","English","中文")</f>
+        <f t="shared" ref="H2:H11" si="3">IF(MID(B2,4,1)="1","English","中文")</f>
         <v>English</v>
       </c>
       <c r="I2" s="1" t="str">
-        <f t="shared" ref="I2:I10" si="4">IF(MID(B2,5,1)="0","代表",IF(MID(B2,5,1)="1","新闻媒体","志愿者"))</f>
+        <f t="shared" ref="I2:I11" si="4">IF(MID(B2,5,1)="0","代表",IF(MID(B2,5,1)="1","新闻媒体","志愿者"))</f>
         <v>志愿者</v>
       </c>
-      <c r="J2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1">
         <v>21200</v>
@@ -635,7 +607,7 @@
         <v>2134242422</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3:D66" si="5">LEFT(B3,1)</f>
+        <f t="shared" ref="D3:D65" si="5">LEFT(B3,1)</f>
         <v>2</v>
       </c>
       <c r="E3" s="1" t="str">
@@ -658,11 +630,8 @@
         <f t="shared" si="4"/>
         <v>代表</v>
       </c>
-      <c r="J3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -695,11 +664,8 @@
         <f t="shared" si="4"/>
         <v>代表</v>
       </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -732,11 +698,8 @@
         <f t="shared" si="4"/>
         <v>代表</v>
       </c>
-      <c r="J5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -770,11 +733,8 @@
         <f t="shared" si="4"/>
         <v>代表</v>
       </c>
-      <c r="J6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -808,11 +768,8 @@
         <f t="shared" si="4"/>
         <v>代表</v>
       </c>
-      <c r="J7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -845,11 +802,8 @@
       <c r="I8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -883,13 +837,10 @@
         <f t="shared" si="4"/>
         <v>代表</v>
       </c>
-      <c r="J9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1">
         <v>20100</v>
@@ -916,87 +867,82 @@
         <f t="shared" si="3"/>
         <v>中文</v>
       </c>
-      <c r="I10" s="1" t="str">
+      <c r="I10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1">
+        <v>201102</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2143342421</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>女</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>社员</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>学术部</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>English</v>
+      </c>
+      <c r="I11" s="1" t="str">
         <f t="shared" si="4"/>
         <v>代表</v>
       </c>
-      <c r="J10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2142342221</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D12" s="2" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E12"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D13" s="2" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E13"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E14"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D15" s="2" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D16" s="2" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
       <c r="H16"/>
@@ -1007,7 +953,6 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E17"/>
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17"/>
@@ -1018,7 +963,6 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E18"/>
       <c r="F18"/>
       <c r="G18"/>
       <c r="H18"/>
@@ -1029,7 +973,6 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
@@ -1040,7 +983,6 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20"/>
@@ -1051,7 +993,6 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
@@ -1062,7 +1003,6 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22"/>
@@ -1073,7 +1013,6 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23"/>
@@ -1084,7 +1023,6 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
@@ -1095,7 +1033,6 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
@@ -1106,7 +1043,6 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
@@ -1117,7 +1053,6 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E27"/>
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27"/>
@@ -1128,7 +1063,6 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E28"/>
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
@@ -1139,7 +1073,6 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29"/>
@@ -1150,7 +1083,6 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30"/>
@@ -1543,7 +1475,7 @@
     </row>
     <row r="66" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D66" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D66:D99" si="6">LEFT(B66,1)</f>
         <v/>
       </c>
       <c r="E66"/>
@@ -1554,7 +1486,7 @@
     </row>
     <row r="67" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D67" s="2" t="str">
-        <f t="shared" ref="D67:D100" si="6">LEFT(B67,1)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E67"/>
@@ -1915,17 +1847,7 @@
       <c r="H99"/>
       <c r="I99"/>
     </row>
-    <row r="100" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D100" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E100"/>
-      <c r="F100"/>
-      <c r="G100"/>
-      <c r="H100"/>
-      <c r="I100"/>
-    </row>
+    <row r="100" spans="4:9" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="101" spans="4:9" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="102" spans="4:9" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="103" spans="4:9" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -2579,7 +2501,13 @@
     <row r="751" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="752" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="753" spans="5:9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="754" spans="5:9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="754" spans="5:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E754" s="1"/>
+      <c r="F754" s="1"/>
+      <c r="G754" s="1"/>
+      <c r="H754" s="1"/>
+      <c r="I754" s="1"/>
+    </row>
     <row r="755" spans="5:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E755" s="1"/>
       <c r="F755" s="1"/>
@@ -3174,13 +3102,6 @@
       <c r="G839" s="1"/>
       <c r="H839" s="1"/>
       <c r="I839" s="1"/>
-    </row>
-    <row r="840" spans="5:9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E840" s="1"/>
-      <c r="F840" s="1"/>
-      <c r="G840" s="1"/>
-      <c r="H840" s="1"/>
-      <c r="I840" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A1:B1">
@@ -3194,10 +3115,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F1F974-32D2-4519-80F0-8BE3EA875E21}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3228,6 +3149,9 @@
         <f>基本!C2</f>
         <v>2142232211</v>
       </c>
+      <c r="C2" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
@@ -3238,6 +3162,9 @@
         <f>基本!C3</f>
         <v>2134242422</v>
       </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="str">
@@ -3248,6 +3175,9 @@
         <f>基本!C4</f>
         <v>2141242444</v>
       </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="str">
@@ -3258,6 +3188,9 @@
         <f>基本!C5</f>
         <v>2141342222</v>
       </c>
+      <c r="C5" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="str">
@@ -3268,6 +3201,9 @@
         <f>基本!C6</f>
         <v>2142142411</v>
       </c>
+      <c r="C6" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="str">
@@ -3278,6 +3214,9 @@
         <f>基本!C7</f>
         <v>2142142411</v>
       </c>
+      <c r="C7" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="str">
@@ -3288,6 +3227,9 @@
         <f>基本!C8</f>
         <v>2142144411</v>
       </c>
+      <c r="C8" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="str">
@@ -3298,6 +3240,9 @@
         <f>基本!C9</f>
         <v>2144242422</v>
       </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="str">
@@ -3308,15 +3253,21 @@
         <f>基本!C10</f>
         <v>2143244221</v>
       </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="str">
         <f>基本!A11</f>
-        <v>肖颖</v>
+        <v>杨迪</v>
       </c>
       <c r="B11" s="1">
         <f>基本!C11</f>
-        <v>2142342221</v>
+        <v>2143342421</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -4200,17 +4151,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
-        <f>基本!A100</f>
-        <v>0</v>
-      </c>
-      <c r="B100" s="1">
-        <f>基本!C100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
+      <c r="A100" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4223,10 +4164,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFAC3E1-44DC-4334-83CE-EFB29DC99713}">
-  <dimension ref="A1:P100"/>
+  <dimension ref="A1:P99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A100"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4341,7 +4282,7 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="str">
         <f>学术水平!A11</f>
-        <v>肖颖</v>
+        <v>杨迪</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -4869,12 +4810,6 @@
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <f>学术水平!A99</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
-        <f>学术水平!A100</f>
         <v>0</v>
       </c>
     </row>
@@ -4886,10 +4821,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7159A64-5FDF-4E9F-A780-BCAA84650158}">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5015,9 +4950,9 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="str">
         <f>基本!A11</f>
-        <v>肖颖</v>
-      </c>
-      <c r="B11" s="1">
+        <v>杨迪</v>
+      </c>
+      <c r="B11" s="1" t="str">
         <f>基本!D11</f>
         <v>2</v>
       </c>
@@ -5899,16 +5834,6 @@
       </c>
       <c r="B99" s="1" t="str">
         <f>基本!D99</f>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
-        <f>基本!A100</f>
-        <v>0</v>
-      </c>
-      <c r="B100" s="1" t="str">
-        <f>基本!D100</f>
         <v/>
       </c>
     </row>
